--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C410F73-8D1E-4FD6-B848-F05BD6ED8954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7C33A44D-8C68-44C7-8DAE-4D8C705E9CA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogues" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>HunterFirst</t>
   </si>
@@ -33,11 +33,30 @@
     <t>HunterSecond</t>
   </si>
   <si>
+    <t>DarkPactFound</t>
+  </si>
+  <si>
+    <t>DarkPactNoTime</t>
+  </si>
+  <si>
+    <t>Почему я все еще мешкаю?
+Глашатай уже в комнате
+Быстрее в окно!</t>
+  </si>
+  <si>
+    <t>Что это такое?
+О боже…
+Мэр заключил контракт с дьяволом
+И этот странный амулет…
+Пожалуй, заберу его с собой
+Нужно рассказать всем о связи мэра с дьяволом!</t>
+  </si>
+  <si>
     <t>Привет, ученик
 В лесу много стражников
 Будь осторожнее, если тебя схватят, тебя повесят
-С нашем городе стало неспокойно с тех пор, как сменился король…
-Жестокие стражники короля не дают покоя народу
+В нашем городе стало неспокойно с тех пор, как сменился мэр…
+Жестокие стражники мэра не дают покоя народу
 Чтобы его свергнуть, мы должны найти сообщников в городе</t>
   </si>
 </sst>
@@ -900,27 +919,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -928,6 +947,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7C33A44D-8C68-44C7-8DAE-4D8C705E9CA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37184CEC-3E69-4075-9CE5-B17FC14BC2CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HunterFirst</t>
-  </si>
-  <si>
-    <t>У тебя хорошо получается
-Ты большой молодец
-Продолжай в том же духе</t>
   </si>
   <si>
     <t>HunterSecond</t>
@@ -53,11 +48,33 @@
   </si>
   <si>
     <t>Привет, ученик
-В лесу много стражников
-Будь осторожнее, если тебя схватят, тебя повесят
-В нашем городе стало неспокойно с тех пор, как сменился мэр…
-Жестокие стражники мэра не дают покоя народу
-Чтобы его свергнуть, мы должны найти сообщников в городе</t>
+Я добыл очень ценные шкуры
+Их согласился купить сам мэр города
+Отниси их в ратушу
+Вход в город находится прямо над моим домом</t>
+  </si>
+  <si>
+    <t>Не заставляй мэра ждать
+У него довольно скверный характер</t>
+  </si>
+  <si>
+    <t>BlackManGoToHunter</t>
+  </si>
+  <si>
+    <t>Я спас тебя, и в благородство играть не буду
+Но сначала подойди к своему учителю</t>
+  </si>
+  <si>
+    <t>HunterTutorial</t>
+  </si>
+  <si>
+    <t>Ты попал в неудачное положение
+Но этот амулет…
+Кажется ты умеешь телепортироваться
+Знаешь что…
+Я забыл шкуры на полянке справа снизу от моего дома
+Но там много стражников
+Принеси мне их</t>
   </si>
 </sst>
 </file>
@@ -919,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,36 +948,52 @@
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37184CEC-3E69-4075-9CE5-B17FC14BC2CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA24ACF-CFC7-490E-A91F-57EE060681E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HunterFirst</t>
   </si>
@@ -75,6 +75,45 @@
 Я забыл шкуры на полянке справа снизу от моего дома
 Но там много стражников
 Принеси мне их</t>
+  </si>
+  <si>
+    <t>HunterTutorialRepeat</t>
+  </si>
+  <si>
+    <t>Чего ты ждешь?
+Поляна со шкурой справа снизу от моего дома</t>
+  </si>
+  <si>
+    <t>HunterGoToBlackMan</t>
+  </si>
+  <si>
+    <t>HunterFirstQuestDone</t>
+  </si>
+  <si>
+    <t>Молодец, ты справился с задачей
+Так еще и начинаешь осваивать свою новую способность
+У контрабандиста есть для тебя дело
+Подойди к нему</t>
+  </si>
+  <si>
+    <t>Контрабандист хочет с тобой поговорить
+Дела у него мутные, но выбора у тебя нет</t>
+  </si>
+  <si>
+    <t>BlackManFirstQuest</t>
+  </si>
+  <si>
+    <t>Мои коллеги забросили в этот лес товар при помощи катапульты
+Он приземлился где-то в левой нижней части леса
+Возьми его и возвращайся ко мне
+Но будь осторожен, стражники тоже его ищут</t>
+  </si>
+  <si>
+    <t>Товар в левой нижней части леса
+Найди его, но будь осторожен</t>
+  </si>
+  <si>
+    <t>BlackManFirstQuestRepeat</t>
   </si>
 </sst>
 </file>
@@ -936,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1035,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA24ACF-CFC7-490E-A91F-57EE060681E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819E0E7-14F3-445F-A2F7-A6F6A46D56C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogues" sheetId="1" r:id="rId1"/>
@@ -68,52 +68,53 @@
     <t>HunterTutorial</t>
   </si>
   <si>
+    <t>HunterTutorialRepeat</t>
+  </si>
+  <si>
+    <t>Чего ты ждешь?
+Поляна со шкурой справа снизу от моего дома</t>
+  </si>
+  <si>
+    <t>HunterGoToBlackMan</t>
+  </si>
+  <si>
+    <t>HunterFirstQuestDone</t>
+  </si>
+  <si>
+    <t>Молодец, ты справился с задачей
+Так еще и начинаешь осваивать свою новую способность
+У контрабандиста есть для тебя дело
+Подойди к нему</t>
+  </si>
+  <si>
+    <t>Контрабандист хочет с тобой поговорить
+Дела у него мутные, но выбора у тебя нет</t>
+  </si>
+  <si>
+    <t>BlackManFirstQuest</t>
+  </si>
+  <si>
+    <t>Мои коллеги забросили в этот лес товар при помощи катапульты
+Он приземлился где-то в левой нижней части леса
+Возьми его и возвращайся ко мне
+Но будь осторожен, стражники тоже его ищут</t>
+  </si>
+  <si>
+    <t>Товар в левой нижней части леса
+Найди его, но будь осторожен</t>
+  </si>
+  <si>
+    <t>BlackManFirstQuestRepeat</t>
+  </si>
+  <si>
     <t>Ты попал в неудачное положение
 Но этот амулет…
-Кажется ты умеешь телепортироваться
+Он обладает необычной магической силой
+С помощью него ты теперь можешь телепортироваться!
 Знаешь что…
 Я забыл шкуры на полянке справа снизу от моего дома
 Но там много стражников
 Принеси мне их</t>
-  </si>
-  <si>
-    <t>HunterTutorialRepeat</t>
-  </si>
-  <si>
-    <t>Чего ты ждешь?
-Поляна со шкурой справа снизу от моего дома</t>
-  </si>
-  <si>
-    <t>HunterGoToBlackMan</t>
-  </si>
-  <si>
-    <t>HunterFirstQuestDone</t>
-  </si>
-  <si>
-    <t>Молодец, ты справился с задачей
-Так еще и начинаешь осваивать свою новую способность
-У контрабандиста есть для тебя дело
-Подойди к нему</t>
-  </si>
-  <si>
-    <t>Контрабандист хочет с тобой поговорить
-Дела у него мутные, но выбора у тебя нет</t>
-  </si>
-  <si>
-    <t>BlackManFirstQuest</t>
-  </si>
-  <si>
-    <t>Мои коллеги забросили в этот лес товар при помощи катапульты
-Он приземлился где-то в левой нижней части леса
-Возьми его и возвращайся ко мне
-Но будь осторожен, стражники тоже его ищут</t>
-  </si>
-  <si>
-    <t>Товар в левой нижней части леса
-Найди его, но будь осторожен</t>
-  </si>
-  <si>
-    <t>BlackManFirstQuestRepeat</t>
   </si>
 </sst>
 </file>
@@ -978,16 +979,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1027,52 +1028,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819E0E7-14F3-445F-A2F7-A6F6A46D56C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81353B5B-5AB4-4045-9955-AE4AC51A4AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>HunterFirst</t>
   </si>
@@ -115,6 +115,9 @@
 Я забыл шкуры на полянке справа снизу от моего дома
 Но там много стражников
 Принеси мне их</t>
+  </si>
+  <si>
+    <t>BlackManFirstQuestGoToTown</t>
   </si>
 </sst>
 </file>
@@ -976,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,6 +1079,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819E0E7-14F3-445F-A2F7-A6F6A46D56C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2370BEA-4955-4F12-B59E-56C5B69E1BE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogues" sheetId="1" r:id="rId1"/>
@@ -34,26 +34,6 @@
     <t>DarkPactNoTime</t>
   </si>
   <si>
-    <t>Почему я все еще мешкаю?
-Глашатай уже в комнате
-Быстрее в окно!</t>
-  </si>
-  <si>
-    <t>Что это такое?
-О боже…
-Мэр заключил контракт с дьяволом
-И этот странный амулет…
-Пожалуй, заберу его с собой
-Нужно рассказать всем о связи мэра с дьяволом!</t>
-  </si>
-  <si>
-    <t>Привет, ученик
-Я добыл очень ценные шкуры
-Их согласился купить сам мэр города
-Отниси их в ратушу
-Вход в город находится прямо над моим домом</t>
-  </si>
-  <si>
     <t>Не заставляй мэра ждать
 У него довольно скверный характер</t>
   </si>
@@ -115,6 +95,28 @@
 Я забыл шкуры на полянке справа снизу от моего дома
 Но там много стражников
 Принеси мне их</t>
+  </si>
+  <si>
+    <t>Что это такое?
+О боже…
+Мэр заключил контракт с дьяволом
+И этот странный амулет…
+Пожалуй, заберу его с собой
+Нужно рассказать всем о связи мэра с дьяволом!
+О нет, это мэр
+Он меня видел, надо уходить через окно!</t>
+  </si>
+  <si>
+    <t>Почему я все еще мешкаю?
+Мэр уже в комнате
+Быстрее в окно!</t>
+  </si>
+  <si>
+    <t>Привет, ученик
+Я добыл очень ценные шкуры
+Их согласился купить сам мэр города
+Отнеси их в ратушу
+Вход в город находится прямо над моим домом</t>
   </si>
 </sst>
 </file>
@@ -978,102 +980,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81353B5B-5AB4-4045-9955-AE4AC51A4AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210B73B-0A66-4BE6-9118-8FCE038859BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogues" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HunterFirst</t>
   </si>
@@ -32,19 +32,6 @@
   </si>
   <si>
     <t>DarkPactNoTime</t>
-  </si>
-  <si>
-    <t>Почему я все еще мешкаю?
-Глашатай уже в комнате
-Быстрее в окно!</t>
-  </si>
-  <si>
-    <t>Что это такое?
-О боже…
-Мэр заключил контракт с дьяволом
-И этот странный амулет…
-Пожалуй, заберу его с собой
-Нужно рассказать всем о связи мэра с дьяволом!</t>
   </si>
   <si>
     <t>Привет, ученик
@@ -54,15 +41,7 @@
 Вход в город находится прямо над моим домом</t>
   </si>
   <si>
-    <t>Не заставляй мэра ждать
-У него довольно скверный характер</t>
-  </si>
-  <si>
     <t>BlackManGoToHunter</t>
-  </si>
-  <si>
-    <t>Я спас тебя, и в благородство играть не буду
-Но сначала подойди к своему учителю</t>
   </si>
   <si>
     <t>HunterTutorial</t>
@@ -118,6 +97,60 @@
   </si>
   <si>
     <t>BlackManFirstQuestGoToTown</t>
+  </si>
+  <si>
+    <t>Отлично, ты принес товар
+Он поможет нам свергнуть мэра хе-хе
+Ты хочешь нам помочь?
+Твоя проворность нам очень пригодится
+Зайди в город через дыру в стене к северо-западу отсюда
+А потом пройди в правый верхний угол города, там тебя будет ждать мой человек</t>
+  </si>
+  <si>
+    <t>BlackManFirstQuestGoToTownRepeat</t>
+  </si>
+  <si>
+    <t>Слева сверху отсюда в стене есть дыра
+Проникни в город и пройди в его правый верхний край
+Там тебя встретит мой человек</t>
+  </si>
+  <si>
+    <t>BlueManQuest</t>
+  </si>
+  <si>
+    <t>Не заставляй мэра ждать
+У него довольно скверный характер
+Вход в город сверху отсюда</t>
+  </si>
+  <si>
+    <t>Что это такое?
+О боже…
+Мэр заключил контракт с дьяволом
+И этот странный амулет…
+Пожалуй, заберу его с собой
+Нужно рассказать всем о связи мэра с дьяволом!
+О нет, это мэр
+Он точно меня видел
+Надо бежать через окно</t>
+  </si>
+  <si>
+    <t>Почему я все еще мешкаю?
+Мэр уже в комнате
+Быстрее в окно!</t>
+  </si>
+  <si>
+    <t>Ты выпрыгнул из окна, а я принес тебя сюда без сознания
+Я спас тебя, и в благородство играть не буду
+Но сначала подойди к своему учителю</t>
+  </si>
+  <si>
+    <t>Черт, меня спалили…
+А, мой брат близнец послал тебя ко мне
+Чтож, ты принес это?
+Отлично, теперь король узнает о связи мэра с дьяволом
+Его заключат в темницу за семь замков, а ты продолжишь жить обычной жизнью
+Что будет за это нам?
+Нам заплатят кругленькую сумму...</t>
   </si>
 </sst>
 </file>
@@ -979,109 +1012,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210B73B-0A66-4BE6-9118-8FCE038859BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86386786-C689-4C7F-9DEA-8C796C91F4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogues" sheetId="1" r:id="rId1"/>
@@ -1014,17 +1014,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>

--- a/Write_Dialogues.xlsx
+++ b/Write_Dialogues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makst\Desktop\WorkSpace\Games_Unity\super_game\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plesk\Desktop\super_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86386786-C689-4C7F-9DEA-8C796C91F4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9304F574-A7FD-4281-988D-14B6E73A1F2E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogues" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,6 @@
     <t>DarkPactNoTime</t>
   </si>
   <si>
-    <t>Привет, ученик
-Я добыл очень ценные шкуры
-Их согласился купить сам мэр города
-Отниси их в ратушу
-Вход в город находится прямо над моим домом</t>
-  </si>
-  <si>
     <t>BlackManGoToHunter</t>
   </si>
   <si>
@@ -151,6 +144,13 @@
 Его заключат в темницу за семь замков, а ты продолжишь жить обычной жизнью
 Что будет за это нам?
 Нам заплатят кругленькую сумму...</t>
+  </si>
+  <si>
+    <t>Привет, ученик
+Я добыл очень ценные шкуры
+Их согласился купить сам мэр города
+Отнеси их в ратушу
+Вход в город находится прямо над моим домом</t>
   </si>
 </sst>
 </file>
@@ -1014,126 +1014,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
